--- a/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
+++ b/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programme\_TSO\_Projet tso final\Trotinette_Git\Documentation\PCB\Plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E00CA3CC-FA57-4DF8-A540-A47D3842F755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888305C7-DAA0-4D7D-B674-6407E6B1723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CF7E7B00-0B90-4AA1-96DC-F02D56B415EB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Fonction</t>
   </si>
@@ -105,32 +105,53 @@
     <t>Acceléromètre</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Tester les </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>interrup</t>
-    </r>
-  </si>
-  <si>
-    <t>MCU</t>
-  </si>
-  <si>
-    <t>Est-ce que les pin header s'incert facilement dans le PCB de contrôle de la trottinette?</t>
+    <t>trottinette_telemetrie</t>
+  </si>
+  <si>
+    <t>Marc-Antoine Sauvé</t>
+  </si>
+  <si>
+    <t>Est-ce que les pin header s'insert facilement dans le PCB de contrôle de la trottinette?</t>
+  </si>
+  <si>
+    <t>Propriétés physique</t>
+  </si>
+  <si>
+    <t>Pour cette section, brancher le PCB de télémétrie par USB-C, connecter le port mini-HDMI au PCB de connexion et programmer le MCU avec le programme du prototype (Git)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est-ce que l'écran s'éteint l'orsque l'interrup est actif? </t>
+  </si>
+  <si>
+    <t>Redémarrage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     I2C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Interruption</t>
+  </si>
+  <si>
+    <t>Est ce que l'accéléromètre est programmable avec le code prototype?</t>
+  </si>
+  <si>
+    <t>À l'aide d'un oscilloscope, est ce que les interruptions de l'accéléromètre deviennent active lorsque le PCB est sur le coter?</t>
+  </si>
+  <si>
+    <t>Pour cette section, déconnecter le cabe USB-C et le connecteur mni-HDMI.</t>
+  </si>
+  <si>
+    <t>Le bouton de reset du PCB de contrôle permet-il un bon redémarrage du MCU du PCB de télémétrie ?</t>
+  </si>
+  <si>
+    <t>MOSFET / signal LED_Control</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,13 +190,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -209,18 +223,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="26">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -393,68 +398,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dashDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="dashDotDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="dashDotDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="dashDotDot">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -513,11 +456,46 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="dashDot">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -526,11 +504,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -541,107 +520,127 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -880,10 +879,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44BF1BC0-4CC6-4C5E-B5BA-D603BE4F90F0}" name="Table2" displayName="Table2" ref="B29:E38" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44BF1BC0-4CC6-4C5E-B5BA-D603BE4F90F0}" name="Table2" displayName="Table2" ref="B27:E36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1F4C9926-DE17-4526-B1BD-9D183A491E88}" name="1" headerRowDxfId="9" dataDxfId="8">
-      <calculatedColumnFormula>B29+1</calculatedColumnFormula>
+      <calculatedColumnFormula>B27+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E4B78305-54C7-43BC-B765-D086A3BDB66E}" name="Column1" headerRowDxfId="7" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{1D24A92F-EACA-4F96-AB25-C42E4D7DE336}" name="Column2" headerRowDxfId="5" dataDxfId="4"/>
@@ -1190,9 +1189,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A179C3DD-CE59-450A-90EC-B70C1216426A}">
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:G40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1207,7 +1206,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="26" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
@@ -1215,23 +1214,27 @@
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="5"/>
-      <c r="C2" s="41"/>
+      <c r="C2" s="27"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5"/>
-      <c r="C3" s="42"/>
+      <c r="C3" s="28"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="11"/>
+      <c r="C4" s="11" t="s">
+        <v>26</v>
+      </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -1261,7 +1264,7 @@
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="20">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
@@ -1276,291 +1279,299 @@
       </c>
     </row>
     <row r="9" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B10" s="33" t="s">
+    <row r="10" spans="2:7" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C11" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="34"/>
-      <c r="C11" s="44" t="s">
+      <c r="D11" s="31"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="40"/>
+      <c r="C12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="34"/>
-      <c r="C12" s="45" t="s">
+      <c r="D12" s="32"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="40"/>
+      <c r="C13" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="34"/>
-      <c r="C13" s="46" t="s">
+      <c r="D13" s="32"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="52"/>
+      <c r="C14" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="18"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" s="33" t="s">
+      <c r="D14" s="17"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="35"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="14"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="45"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="35"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="B16" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="32"/>
+      <c r="E16" s="46"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="35"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="14"/>
+    <row r="17" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="32"/>
+      <c r="E17" s="45"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="20" t="s">
+    <row r="18" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="31"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="43"/>
+      <c r="C19" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="35"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="35"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="35"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="47"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="35"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="14"/>
+    <row r="23" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="35"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="26"/>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="39"/>
-      <c r="C25" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="18">
+        <v>1</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="18">
+        <f t="shared" ref="B28:B35" si="0">B27+1</f>
+        <v>2</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="30">
-        <v>1</v>
-      </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="18">
+        <f>B28+1</f>
+        <v>3</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="30">
-        <f t="shared" ref="B30:B37" si="0">B29+1</f>
-        <v>2</v>
-      </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="30">
-        <f>B30+1</f>
-        <v>3</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="30">
+      <c r="B30" s="18">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="30">
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="18">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="30">
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="30">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="18">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="30">
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="18">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="30">
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="18">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="18">
+        <v>10</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="19"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="30">
-        <v>10</v>
-      </c>
-      <c r="C38" s="31"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="31"/>
+      <c r="E38" s="19"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="31"/>
+      <c r="E39" s="19"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="31"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="31"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="31"/>
+      <c r="E40" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="B24:B25"/>
+  <mergeCells count="5">
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B18:B19"/>
     <mergeCell ref="C1:C3"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B10:E10"/>
   </mergeCells>
-  <conditionalFormatting sqref="D10:D25">
+  <conditionalFormatting sqref="D22:D23 D11:D20">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Échec">
-      <formula>NOT(ISERROR(SEARCH("Échec",D10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Échec",D11)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Réussi">
-      <formula>NOT(ISERROR(SEARCH("Réussi",D10)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Réussi",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10:D25" xr:uid="{FE4B82E2-1996-4D3C-82E2-B8CCB3918355}">
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D22 D11:D14 D18:D19 D15:D20" xr:uid="{FE4B82E2-1996-4D3C-82E2-B8CCB3918355}">
       <formula1>$G$7:$G$8</formula1>
     </dataValidation>
   </dataValidations>

--- a/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
+++ b/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programme\_TSO\_Projet tso final\Trotinette_Git\Documentation\PCB\Plan_de_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyam\OneDrive\Documents\GitHub\Trotinette_Git\Documentation\PCB\Plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888305C7-DAA0-4D7D-B674-6407E6B1723A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD048ACB-BE15-4BEB-8399-B7172A2B8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CF7E7B00-0B90-4AA1-96DC-F02D56B415EB}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF7E7B00-0B90-4AA1-96DC-F02D56B415EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tests" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Fonction</t>
   </si>
@@ -72,9 +83,6 @@
     <t>Un court-circuit sur la sortie du régulateur ne court-circuite pas l'alimentation USB de 5V</t>
   </si>
   <si>
-    <t>Le circuit de protection limite le courant au-delà d'une consommation de 1A (5V en sortie avec une resistance de 1ohm, 5Watt)</t>
-  </si>
-  <si>
     <t>Nom du PCB</t>
   </si>
   <si>
@@ -96,9 +104,6 @@
     <t>La tension de sortie est à 3V3</t>
   </si>
   <si>
-    <t>Le régulateur supporte un court-circuit sur sa sortie</t>
-  </si>
-  <si>
     <t>Le régulateur supporte un courant de sortie de 300mA (3.3V en sortie avec une resistance de 11ohm, 5Watt)</t>
   </si>
   <si>
@@ -132,19 +137,43 @@
     <t xml:space="preserve">    Interruption</t>
   </si>
   <si>
-    <t>Est ce que l'accéléromètre est programmable avec le code prototype?</t>
-  </si>
-  <si>
     <t>À l'aide d'un oscilloscope, est ce que les interruptions de l'accéléromètre deviennent active lorsque le PCB est sur le coter?</t>
   </si>
   <si>
-    <t>Pour cette section, déconnecter le cabe USB-C et le connecteur mni-HDMI.</t>
-  </si>
-  <si>
     <t>Le bouton de reset du PCB de contrôle permet-il un bon redémarrage du MCU du PCB de télémétrie ?</t>
   </si>
   <si>
     <t>MOSFET / signal LED_Control</t>
+  </si>
+  <si>
+    <t>Court-circuit</t>
+  </si>
+  <si>
+    <t>Il n'y a pas de court-circuit entre 5V/VUSB et GND</t>
+  </si>
+  <si>
+    <t>Environ 260 kΩ entre 5V et GND</t>
+  </si>
+  <si>
+    <t>4.79 V Mesuré</t>
+  </si>
+  <si>
+    <t>3.32 V Mesuré</t>
+  </si>
+  <si>
+    <t>303 mA mesuré</t>
+  </si>
+  <si>
+    <t>résistance de pull down sur GPIO46 pour boot mode</t>
+  </si>
+  <si>
+    <t>Est ce qu'on peut lire les données de l'accélérateur</t>
+  </si>
+  <si>
+    <t>DEL verte pour alimentation</t>
+  </si>
+  <si>
+    <t>Pour cette section, déconnecter le cabe USB-C et le connecteur mini-HDMI.</t>
   </si>
 </sst>
 </file>
@@ -223,7 +252,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -399,17 +428,6 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top/>
       <bottom style="medium">
@@ -487,24 +505,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -532,9 +537,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -544,19 +546,67 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,80 +618,37 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -879,10 +886,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44BF1BC0-4CC6-4C5E-B5BA-D603BE4F90F0}" name="Table2" displayName="Table2" ref="B27:E36" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44BF1BC0-4CC6-4C5E-B5BA-D603BE4F90F0}" name="Table2" displayName="Table2" ref="B25:E34" headerRowCount="0" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11" tableBorderDxfId="10">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{1F4C9926-DE17-4526-B1BD-9D183A491E88}" name="1" headerRowDxfId="9" dataDxfId="8">
-      <calculatedColumnFormula>B27+1</calculatedColumnFormula>
+      <calculatedColumnFormula>B25+1</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E4B78305-54C7-43BC-B765-D086A3BDB66E}" name="Column1" headerRowDxfId="7" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{1D24A92F-EACA-4F96-AB25-C42E4D7DE336}" name="Column2" headerRowDxfId="5" dataDxfId="4"/>
@@ -893,9 +900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -933,7 +940,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1039,7 +1046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1181,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1189,82 +1196,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A179C3DD-CE59-450A-90EC-B70C1216426A}">
-  <dimension ref="B1:G40"/>
+  <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" customWidth="1"/>
-    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
     <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="41" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
-    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="27"/>
+      <c r="C2" s="42"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
-      <c r="C3" s="28"/>
+      <c r="C3" s="43"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="2:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="6"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="19">
         <v>1</v>
       </c>
       <c r="D7" s="8"/>
@@ -1273,12 +1280,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:7" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:7" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:7" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:7" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="13" t="s">
         <v>0</v>
       </c>
@@ -1293,276 +1300,292 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="2:7" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="36" t="s">
+    <row r="10" spans="2:7" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="44" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="45"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="29"/>
+      <c r="C13" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="52"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="51"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="24"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="2:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="32"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="35"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B11" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:7" ht="28.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="52"/>
-      <c r="C14" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="41" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="41" t="s">
+      <c r="C21" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="32"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="2:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="2:6" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="43"/>
-      <c r="C19" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="33"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="36" t="s">
+      <c r="C22" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="47"/>
+      <c r="D22" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>38</v>
+      </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="35"/>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="17">
+        <v>1</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="17">
+        <f t="shared" ref="B26:B33" si="0">B25+1</f>
+        <v>2</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="18">
-        <v>1</v>
-      </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="17">
+        <f>B26+1</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="18">
-        <f t="shared" ref="B28:B35" si="0">B27+1</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="18">
-        <f>B28+1</f>
-        <v>3</v>
-      </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="18">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B31" s="18">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B32" s="18">
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="18">
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C33" s="19"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="18">
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="18"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="18">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="18">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="17">
         <v>10</v>
       </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="19"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="19"/>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="19"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="18"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="18"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="18"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E38" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B18:B19"/>
+  <mergeCells count="7">
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="C1:C3"/>
-    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B19:E19"/>
     <mergeCell ref="B10:E10"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D22:D23 D11:D20">
+  <conditionalFormatting sqref="D20:D22 D11:D14 D16:D18">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Échec">
       <formula>NOT(ISERROR(SEARCH("Échec",D11)))</formula>
     </cfRule>
@@ -1570,8 +1593,8 @@
       <formula>NOT(ISERROR(SEARCH("Réussi",D11)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D23 D22 D11:D14 D18:D19 D15:D20" xr:uid="{FE4B82E2-1996-4D3C-82E2-B8CCB3918355}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D20:D22 D11:D14 D16:D18" xr:uid="{FE4B82E2-1996-4D3C-82E2-B8CCB3918355}">
       <formula1>$G$7:$G$8</formula1>
     </dataValidation>
   </dataValidations>
@@ -1585,20 +1608,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="6dae3be6-b058-43ec-b4f2-cc57043c83cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="6dae3be6-b058-43ec-b4f2-cc57043c83cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1728,19 +1751,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AEB08-FCE2-4EE0-92A9-4F4237B9281C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7517A2A8-86A8-46BD-B310-17A2B16ACEBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6dae3be6-b058-43ec-b4f2-cc57043c83cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7517A2A8-86A8-46BD-B310-17A2B16ACEBC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AEB08-FCE2-4EE0-92A9-4F4237B9281C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6dae3be6-b058-43ec-b4f2-cc57043c83cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
+++ b/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyam\OneDrive\Documents\GitHub\Trotinette_Git\Documentation\PCB\Plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD048ACB-BE15-4BEB-8399-B7172A2B8767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A71CA3-2335-4F9C-BF5F-77268AF321D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF7E7B00-0B90-4AA1-96DC-F02D56B415EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
   <si>
     <t>Fonction</t>
   </si>
@@ -125,9 +125,6 @@
     <t>Pour cette section, brancher le PCB de télémétrie par USB-C, connecter le port mini-HDMI au PCB de connexion et programmer le MCU avec le programme du prototype (Git)</t>
   </si>
   <si>
-    <t xml:space="preserve">Est-ce que l'écran s'éteint l'orsque l'interrup est actif? </t>
-  </si>
-  <si>
     <t>Redémarrage</t>
   </si>
   <si>
@@ -174,6 +171,24 @@
   </si>
   <si>
     <t>Pour cette section, déconnecter le cabe USB-C et le connecteur mini-HDMI.</t>
+  </si>
+  <si>
+    <t>Est-ce qu'on peut fermer l'écran à l'aide du signal LED</t>
+  </si>
+  <si>
+    <t>Réduction de la longueur des traces USB</t>
+  </si>
+  <si>
+    <t>Enlever la pull-up sur EN</t>
+  </si>
+  <si>
+    <t>Déplacer CON_GPIO18 et CON_GPIO21 sur les pattes 10 et 11 du MCU</t>
+  </si>
+  <si>
+    <t>Changer pattes UART</t>
+  </si>
+  <si>
+    <t>Il y a un délai de 2 sec pour que l'angle soit détectée</t>
   </si>
 </sst>
 </file>
@@ -600,33 +615,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -634,6 +622,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1198,8 +1213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A179C3DD-CE59-450A-90EC-B70C1216426A}">
   <dimension ref="B1:G38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1228,7 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="44" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="3"/>
@@ -1221,12 +1236,12 @@
     </row>
     <row r="2" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5"/>
-      <c r="C2" s="42"/>
+      <c r="C2" s="45"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:7" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5"/>
-      <c r="C3" s="43"/>
+      <c r="C3" s="46"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1301,12 +1316,12 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="2:7" ht="37.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="45"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="46"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
@@ -1320,7 +1335,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="1"/>
     </row>
@@ -1333,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F12" s="1"/>
     </row>
@@ -1346,24 +1361,26 @@
         <v>9</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="52"/>
+      <c r="C14" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="52" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="54"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B15" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C15" s="51"/>
       <c r="D15" s="53"/>
@@ -1372,13 +1389,17 @@
     </row>
     <row r="16" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="24"/>
-      <c r="E16" s="33"/>
+      <c r="D16" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1396,22 +1417,22 @@
     </row>
     <row r="18" spans="2:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="36" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="35"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="46"/>
+      <c r="B19" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1429,27 +1450,29 @@
     </row>
     <row r="21" spans="2:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="25"/>
+        <v>33</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E21" s="27"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="48" t="s">
+      <c r="B22" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="D22" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="D22" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="47" t="s">
-        <v>38</v>
       </c>
       <c r="F22" s="1"/>
     </row>
@@ -1457,12 +1480,12 @@
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="2:6" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
@@ -1470,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -1482,7 +1505,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -1493,7 +1516,9 @@
         <f>B26+1</f>
         <v>3</v>
       </c>
-      <c r="C27" s="18"/>
+      <c r="C27" s="18" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
       <c r="F27" s="1"/>
@@ -1503,7 +1528,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
       <c r="F28" s="1"/>
@@ -1513,7 +1540,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C29" s="18"/>
+      <c r="C29" s="18" t="s">
+        <v>47</v>
+      </c>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
       <c r="F29" s="1"/>
@@ -1523,7 +1552,9 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C30" s="18"/>
+      <c r="C30" s="18" t="s">
+        <v>49</v>
+      </c>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
       <c r="F30" s="1"/>
@@ -1585,7 +1616,7 @@
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
   </mergeCells>
-  <conditionalFormatting sqref="D20:D22 D11:D14 D16:D18">
+  <conditionalFormatting sqref="D11:D14 D16:D18 D20:D22">
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Échec">
       <formula>NOT(ISERROR(SEARCH("Échec",D11)))</formula>
     </cfRule>
@@ -1608,20 +1639,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="6dae3be6-b058-43ec-b4f2-cc57043c83cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="6dae3be6-b058-43ec-b4f2-cc57043c83cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1751,19 +1782,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AEB08-FCE2-4EE0-92A9-4F4237B9281C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7517A2A8-86A8-46BD-B310-17A2B16ACEBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6dae3be6-b058-43ec-b4f2-cc57043c83cb"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AEB08-FCE2-4EE0-92A9-4F4237B9281C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
+++ b/Documentation/PCB/Plan_de_test/plan_de_tests_PCB_Telemetrie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuyam\OneDrive\Documents\GitHub\Trotinette_Git\Documentation\PCB\Plan_de_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A71CA3-2335-4F9C-BF5F-77268AF321D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276FCC62-A7D2-497E-920D-3E327A01CD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF7E7B00-0B90-4AA1-96DC-F02D56B415EB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Fonction</t>
   </si>
@@ -1214,7 +1214,7 @@
   <dimension ref="B1:G38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1422,7 +1422,9 @@
       <c r="C18" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="25"/>
+      <c r="D18" s="25" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="35"/>
       <c r="F18" s="1"/>
     </row>
@@ -1639,20 +1641,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="6dae3be6-b058-43ec-b4f2-cc57043c83cb" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="6dae3be6-b058-43ec-b4f2-cc57043c83cb" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1782,19 +1784,19 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AEB08-FCE2-4EE0-92A9-4F4237B9281C}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7517A2A8-86A8-46BD-B310-17A2B16ACEBC}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6dae3be6-b058-43ec-b4f2-cc57043c83cb"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7517A2A8-86A8-46BD-B310-17A2B16ACEBC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{370AEB08-FCE2-4EE0-92A9-4F4237B9281C}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6dae3be6-b058-43ec-b4f2-cc57043c83cb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
